--- a/B.데이터 수집/03.Selenium 활용 데이터수집/요일별_네이버_웹툰.xlsx
+++ b/B.데이터 수집/03.Selenium 활용 데이터수집/요일별_네이버_웹툰.xlsx
@@ -4345,7 +4345,7 @@
     <t>9.86</t>
   </si>
   <si>
-    <t>6.23</t>
+    <t>6.24</t>
   </si>
   <si>
     <t>9.87</t>
@@ -4573,7 +4573,7 @@
     <t>8.83</t>
   </si>
   <si>
-    <t>8.27</t>
+    <t>8.39</t>
   </si>
 </sst>
 </file>
